--- a/PREGAME/2.PRIMERA ITERACION/G4_Backlog_V1.0.xlsx
+++ b/PREGAME/2.PRIMERA ITERACION/G4_Backlog_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\Documents\PaolaSangucho_9899_4G_MDSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE8AEF-B031-48C9-B73C-D849A2A10101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6269E5-3684-4652-B615-52A742DD5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>REQ001-2</t>
+  </si>
+  <si>
+    <t>Proceso</t>
   </si>
 </sst>
 </file>
@@ -509,12 +512,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +523,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,16 +721,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,25 +1251,25 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2339,8 +2342,8 @@
   </sheetPr>
   <dimension ref="B1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2353,28 +2356,28 @@
     <row r="1" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:9" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2401,22 +2404,22 @@
         <v>25</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="28"/>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2424,12 +2427,12 @@
       <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="20" t="s">
         <v>39</v>
       </c>
@@ -2442,12 +2445,12 @@
       <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="20" t="s">
         <v>39</v>
       </c>
@@ -3648,8 +3651,8 @@
   </sheetPr>
   <dimension ref="B1:I997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3696,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -3709,7 +3712,7 @@
       </c>
       <c r="I4" s="37">
         <f>SUM(D4,E4:F4,G4,H4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3754,19 +3757,19 @@
       </c>
       <c r="E7" s="32">
         <f>D7-SUM(E4:E5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="32">
         <f>E7-SUM(F4:F5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="32">
         <f>F7-SUM(G4:G5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="32">
         <f>G7-SUM(H4:H5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
